--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_vu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_vu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -693,15 +710,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,39 +730,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.531836050199872</v>
+        <v>2.95375526322502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9331051106401673</v>
+        <v>1.062534574276635</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.2427437504996886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07028669307529703</v>
+        <v>0.006153656798385459</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02833963314947555</v>
+        <v>0.00738438815806255</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2332762776600418</v>
+        <v>0.08003604379879219</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.03227057670167025</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.2656336435691589</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,39 +774,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.070579696925313</v>
+        <v>1.916418246352648</v>
       </c>
       <c r="C8" t="n">
-        <v>1.247670358769555</v>
+        <v>1.31133189148472</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.3055551982607629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2368709854373563</v>
+        <v>0.009381173497943211</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07135454922800726</v>
+        <v>0.01217543377394417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5451938673524305</v>
+        <v>0.2614862908622095</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.07792937525291828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5934666164403389</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,39 +818,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7625235923999909</v>
+        <v>-0.5448158672605027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3965172068466992</v>
+        <v>0.5375461679269045</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.5269872864915397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2601505418941263</v>
+        <v>0.007016742101067959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07447872733445343</v>
+        <v>0.01081339410579291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6443231690641053</v>
+        <v>0.2859628559091439</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.08349924208978833</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.7278531584220651</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,39 +862,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.283013196634578</v>
+        <v>1.41266830054844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9576698622445414</v>
+        <v>1.041325482412197</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.4572591011656859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2036377754276467</v>
+        <v>0.00937636697994583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08585447480212689</v>
+        <v>0.01434506485716401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8837406346252406</v>
+        <v>0.2367546721321704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.09727992866575497</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.9881845290251143</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,39 +906,42 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8313261958552904</v>
+        <v>0.8719107630738004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9899901231131087</v>
+        <v>1.093473271633789</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.02752217688187458</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2727886809294924</v>
+        <v>0.0104005294988673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1139471454411509</v>
+        <v>0.01652484176484851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8276751946681791</v>
+        <v>0.3020131801381905</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1263778875437229</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.9158831595656106</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,39 +950,42 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6799410894862602</v>
+        <v>0.8220400794903725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6788367980211752</v>
+        <v>0.8210176324378887</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.5509413615915014</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2851083215397173</v>
+        <v>0.01132329972508475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1205872301310724</v>
+        <v>0.01857994196357445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5188825121190248</v>
+        <v>0.3214967775320391</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.1364026546688252</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.6118543477404852</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,39 +994,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.033287411196077</v>
+        <v>1.165611351882415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9168776485129356</v>
+        <v>1.027232792311464</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.07471741341025512</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2846166243952654</v>
+        <v>0.01305088409605822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1346493594606783</v>
+        <v>0.02149397034328048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625693066078814</v>
+        <v>0.32635300133489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.1525846218256888</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.7097994387896909</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,39 +1038,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9027527875632487</v>
+        <v>1.00874027394251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.908150772828016</v>
+        <v>1.048521681615341</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.1236371792709428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3137657017043007</v>
+        <v>0.01437483210545954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1542626370617147</v>
+        <v>0.02401582102813676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6698260601911622</v>
+        <v>0.3562110454398496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.1744290595601308</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.7608066723674504</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,39 +1082,42 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9642815876989853</v>
+        <v>1.100415496111199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8606409531142299</v>
+        <v>1.003783485137443</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.3626513998605359</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3220170419758885</v>
+        <v>0.01590259435675628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1667748196885489</v>
+        <v>0.02676685976841475</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5683378621895969</v>
+        <v>0.3698848510509208</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.1899961849014124</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.6731257177373435</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,39 +1126,42 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.026401377155647</v>
+        <v>1.15463096855543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9807409042517901</v>
+        <v>1.119276729421435</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.3643090296563805</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3431238336008247</v>
+        <v>0.01753656032626853</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1837731385207305</v>
+        <v>0.02965343718980333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6314942481370256</v>
+        <v>0.3934448828778417</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.2092250207262348</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.7282068945893817</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,39 +1170,42 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.022306444258873</v>
+        <v>1.146462454517593</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9728186121276066</v>
+        <v>1.124805526893288</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.3285349999515768</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3701919195671451</v>
+        <v>0.01912754668365236</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2014994191037743</v>
+        <v>0.03251959332609731</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6459711861851452</v>
+        <v>0.4234438354230883</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.2295626546758</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.7477438544319868</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,39 +1214,42 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.060668525216568</v>
+        <v>1.194033770067487</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9953579615853607</v>
+        <v>1.147141486786011</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.4073418032663961</v>
       </c>
       <c r="E18" t="n">
-        <v>0.383337082440517</v>
+        <v>0.02081188810241984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.217148663743042</v>
+        <v>0.03550467775126603</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6386239060654462</v>
+        <v>0.4402458223223187</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.2479104661075252</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.7425407616196947</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,39 +1258,42 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.085180643797902</v>
+        <v>1.214974620615813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.048579681211734</v>
+        <v>1.203540524140835</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.4924703954038933</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4038849055648561</v>
+        <v>0.02252436217318385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2347841393789625</v>
+        <v>0.03854211430280556</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6773572478182344</v>
+        <v>0.4631573968327531</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.2680206802959285</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.7788062157594715</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,39 +1302,42 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.104427860793716</v>
+        <v>1.236405465723082</v>
       </c>
       <c r="C20" t="n">
-        <v>1.05509992453022</v>
+        <v>1.215317475142108</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.5221995442530517</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4257958509044534</v>
+        <v>0.0242671981618341</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2520449618990437</v>
+        <v>0.04163312796711326</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6748402112629057</v>
+        <v>0.4880556506354981</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.2879292540154365</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.7792563703627188</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,39 +1346,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.127846012036958</v>
+        <v>1.263670082116393</v>
       </c>
       <c r="C21" t="n">
-        <v>1.084903702274558</v>
+        <v>1.247506427530807</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.5599242790501107</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4434094056987098</v>
+        <v>0.02605505469876884</v>
       </c>
       <c r="F21" t="n">
-        <v>0.268972271641261</v>
+        <v>0.04479230317240425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6757933978333233</v>
+        <v>0.5086614391144391</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.3074865935457029</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.7799326429768521</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,39 +1390,42 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.147493633650168</v>
+        <v>1.283732143545758</v>
       </c>
       <c r="C22" t="n">
-        <v>1.111740680739003</v>
+        <v>1.279217165795942</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.6319471545584994</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4627986802435861</v>
+        <v>0.02787084291203164</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2865641708325146</v>
+        <v>0.04800163353126864</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6917439147483618</v>
+        <v>0.530875245761257</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.3277261321479749</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.7961495758301043</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,39 +1434,42 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.167293550284938</v>
+        <v>1.306710370413676</v>
       </c>
       <c r="C23" t="n">
-        <v>1.127091528316756</v>
+        <v>1.298519590261799</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.6926787394402147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4814178434225084</v>
+        <v>0.02972227252724466</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3038543188043518</v>
+        <v>0.05126840945730283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6908240534002783</v>
+        <v>0.552571809077704</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.3477314472600059</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.7969827678499106</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,39 +1478,42 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.1867733382429</v>
+        <v>1.329017936079827</v>
       </c>
       <c r="C24" t="n">
-        <v>1.151711601426076</v>
+        <v>1.327440765647065</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.7425903242867102</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4996628323863847</v>
+        <v>0.03160808617755535</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3212099745963205</v>
+        <v>0.05459095429750239</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6930660272846451</v>
+        <v>0.5738520035572692</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.3678169898933905</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.8001153366734051</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,39 +1522,42 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2056774509576</v>
+        <v>1.350263868583455</v>
       </c>
       <c r="C25" t="n">
-        <v>1.171185976310644</v>
+        <v>1.352035057693494</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.8037950013311874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5183565455260252</v>
+        <v>0.03352608977197173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3387253204072507</v>
+        <v>0.05796661396896103</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6970230409994103</v>
+        <v>0.5957146372724682</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.3881262377426354</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.8056417057351357</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,39 +1566,42 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.224279224347516</v>
+        <v>1.372117571553303</v>
       </c>
       <c r="C26" t="n">
-        <v>1.189386353262747</v>
+        <v>1.374907195010271</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.8705655771838081</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5362185811618541</v>
+        <v>0.03547812835282078</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3561246820853547</v>
+        <v>0.06139690789784429</v>
       </c>
       <c r="G26" t="n">
-        <v>0.69704518458547</v>
+        <v>0.6168533030215463</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.4083660768592701</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.8073504063919003</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,39 +1610,42 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.242695818382852</v>
+        <v>1.393467251733329</v>
       </c>
       <c r="C27" t="n">
-        <v>1.209900514506166</v>
+        <v>1.40055740622505</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.9332686782288648</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5541498984909536</v>
+        <v>0.0374632658482251</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3736016685539441</v>
+        <v>0.0648805760271776</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6991282679539003</v>
+        <v>0.6380897681159338</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.4287264268346551</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.811163297066266</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,39 +1654,42 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.261066999089085</v>
+        <v>1.414900813742692</v>
       </c>
       <c r="C28" t="n">
-        <v>1.227963669097976</v>
+        <v>1.423945323035313</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.9967838971892138</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5722092985332488</v>
+        <v>0.03948198018322695</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3911002179732571</v>
+        <v>0.06841782806153433</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6999462959079985</v>
+        <v>0.6595646931467372</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.4491682042063226</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.8140092419337628</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,39 +1698,42 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.279137577993512</v>
+        <v>1.436285175253454</v>
       </c>
       <c r="C29" t="n">
-        <v>1.246459737783412</v>
+        <v>1.447776695299626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.064786466866313</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5899699022350107</v>
+        <v>0.04153438265274056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4085746872895737</v>
+        <v>0.07200854099966797</v>
       </c>
       <c r="G29" t="n">
-        <v>0.70007102313655</v>
+        <v>0.6808134553874944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.469636021022008</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.8160820176200969</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,39 +1742,42 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.297154646405546</v>
+        <v>1.457528882847461</v>
       </c>
       <c r="C30" t="n">
-        <v>1.265119810331765</v>
+        <v>1.471997188473314</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.133993545411008</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6077375412929354</v>
+        <v>0.04362033572676062</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4260865907224261</v>
+        <v>0.07565236320678662</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7011423517679758</v>
+        <v>0.7021380136382654</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.4901952668516052</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.8192158502367796</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,39 +1786,42 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.315123888039334</v>
+        <v>1.478872391215833</v>
       </c>
       <c r="C31" t="n">
-        <v>1.282991627290474</v>
+        <v>1.495491780612551</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.203114320690099</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6254720382618965</v>
+        <v>0.04574026614797354</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4435966296213086</v>
+        <v>0.0793495441848262</v>
       </c>
       <c r="G31" t="n">
-        <v>0.701483812634953</v>
+        <v>0.7235071338403468</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.5108087983236845</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.8217129787392673</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,39 +1830,42 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.332962059495646</v>
+        <v>1.500170164663781</v>
       </c>
       <c r="C32" t="n">
-        <v>1.301164619257245</v>
+        <v>1.519424057816292</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.274158198330262</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6431472290770492</v>
+        <v>0.04789421763835451</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4611087733863674</v>
+        <v>0.08309996959648566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7017246501324754</v>
+        <v>0.7448817469708583</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.5314795169368991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.8241077374037089</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,39 +1874,42 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.350776489249776</v>
+        <v>1.521477639999677</v>
       </c>
       <c r="C33" t="n">
-        <v>1.31914959708716</v>
+        <v>1.543288234463792</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.347245087517753</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6608264817044657</v>
+        <v>0.05008235199653014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4786343973282788</v>
+        <v>0.08690366369648485</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7021365112566507</v>
+        <v>0.7663353669687365</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.5522215440836716</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.8267368599539932</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5580480148758875</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.5580480148758875</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_vu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_vu.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.95375526322502</v>
+        <v>2.955663941253386</v>
       </c>
       <c r="C7" t="n">
-        <v>1.062534574276635</v>
+        <v>1.063221170225037</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2427437504996886</v>
+        <v>-0.2429006083371913</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006153656798385459</v>
+        <v>0.006157633210944554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00738438815806255</v>
+        <v>0.007389159853133464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08003604379879219</v>
+        <v>0.08008776204375923</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03227057670167025</v>
+        <v>0.03229142952637108</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2656336435691589</v>
+        <v>0.2658052925562593</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.916418246352648</v>
+        <v>1.720353342685739</v>
       </c>
       <c r="C8" t="n">
-        <v>1.31133189148472</v>
+        <v>1.241254426806323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3055551982607629</v>
+        <v>0.3224305793251417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009381173497943211</v>
+        <v>0.008964442772279056</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01217543377394417</v>
+        <v>0.01169004320984781</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2614862908622095</v>
+        <v>0.2563128051973509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07792937525291828</v>
+        <v>0.07582565153999143</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5934666164403389</v>
+        <v>0.5761188992578402</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5448158672605027</v>
+        <v>-0.5207699590958484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5375461679269045</v>
+        <v>0.5050051839245326</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5269872864915397</v>
+        <v>0.4933969407234445</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007016742101067959</v>
+        <v>0.006704703140222005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01081339410579291</v>
+        <v>0.01038811831210819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2859628559091439</v>
+        <v>0.2728093533929258</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08349924208978833</v>
+        <v>0.08001097114719159</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7278531584220651</v>
+        <v>0.7023701952389734</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.41266830054844</v>
+        <v>1.410880898492918</v>
       </c>
       <c r="C10" t="n">
-        <v>1.041325482412197</v>
+        <v>1.024181180825428</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4572591011656859</v>
+        <v>-0.4654337902242386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00937636697994583</v>
+        <v>0.009095027010181601</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01434506485716401</v>
+        <v>0.01391532055834048</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2367546721321704</v>
+        <v>0.2275479682270487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09727992866575497</v>
+        <v>0.09427733153841385</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9881845290251143</v>
+        <v>0.9584154904453304</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8719107630738004</v>
+        <v>0.8601316622998104</v>
       </c>
       <c r="C11" t="n">
-        <v>1.093473271633789</v>
+        <v>1.062846147939565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02752217688187458</v>
+        <v>0.05416326434873509</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0104005294988673</v>
+        <v>0.01012082054933802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01652484176484851</v>
+        <v>0.01606564971409001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3020131801381905</v>
+        <v>0.2943435913515546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1263778875437229</v>
+        <v>0.1228094952142983</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9158831595656106</v>
+        <v>0.8782339728302031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8220400794903725</v>
+        <v>0.8362018284838015</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8210176324378887</v>
+        <v>0.809691773439708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5509413615915014</v>
+        <v>0.535055010481774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01132329972508475</v>
+        <v>0.0111012046550432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01857994196357445</v>
+        <v>0.01815615428529951</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3214967775320391</v>
+        <v>0.3138288820034735</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1364026546688252</v>
+        <v>0.1327294546017486</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6118543477404852</v>
+        <v>0.5941182663349576</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.165611351882415</v>
+        <v>1.169027092689313</v>
       </c>
       <c r="C13" t="n">
-        <v>1.027232792311464</v>
+        <v>1.025811381183851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07471741341025512</v>
+        <v>0.06205527920722781</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01305088409605822</v>
+        <v>0.01285512468786928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02149397034328048</v>
+        <v>0.0210787220170228</v>
       </c>
       <c r="G13" t="n">
-        <v>0.32635300133489</v>
+        <v>0.3210040387979167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1525846218256888</v>
+        <v>0.1494427678661359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7097994387896909</v>
+        <v>0.7078232674542124</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.00874027394251</v>
+        <v>1.018321238515407</v>
       </c>
       <c r="C14" t="n">
-        <v>1.048521681615341</v>
+        <v>1.045443663346809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1236371792709428</v>
+        <v>0.1247887722672444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01437483210545954</v>
+        <v>0.01421624103153027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02401582102813676</v>
+        <v>0.02362452511331131</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3562110454398496</v>
+        <v>0.3523301118471502</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1744290595601308</v>
+        <v>0.1714015855963457</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7608066723674504</v>
+        <v>0.7584002732504348</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.100415496111199</v>
+        <v>1.112705019833427</v>
       </c>
       <c r="C15" t="n">
-        <v>1.003783485137443</v>
+        <v>1.010135592813934</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3626513998605359</v>
+        <v>0.3599603244010243</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01590259435675628</v>
+        <v>0.01578386046817713</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02676685976841475</v>
+        <v>0.02640628766289488</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3698848510509208</v>
+        <v>0.3673481581664551</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1899961849014124</v>
+        <v>0.1872634330468032</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6731257177373435</v>
+        <v>0.678427011344521</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.15463096855543</v>
+        <v>1.16885044589345</v>
       </c>
       <c r="C16" t="n">
-        <v>1.119276729421435</v>
+        <v>1.128424472277105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3643090296563805</v>
+        <v>0.3549471989312933</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01753656032626853</v>
+        <v>0.0174589208107167</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02965343718980333</v>
+        <v>0.0293284137776285</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3934448828778417</v>
+        <v>0.392617431287169</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2092250207262348</v>
+        <v>0.2069495795938322</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7282068945893817</v>
+        <v>0.7386248954019515</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.146462454517593</v>
+        <v>1.162906557703531</v>
       </c>
       <c r="C17" t="n">
-        <v>1.124805526893288</v>
+        <v>1.135282957706867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3285349999515768</v>
+        <v>0.3230059721364672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01912754668365236</v>
+        <v>0.01909330050466456</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03251959332609731</v>
+        <v>0.03223568017188733</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4234438354230883</v>
+        <v>0.4233781325074252</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2295626546758</v>
+        <v>0.2275956484324355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7477438544319868</v>
+        <v>0.7588176327382621</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.194033770067487</v>
+        <v>1.211891964690522</v>
       </c>
       <c r="C18" t="n">
-        <v>1.147141486786011</v>
+        <v>1.161880584160187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4073418032663961</v>
+        <v>0.4047813949550391</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02081188810241984</v>
+        <v>0.02082167568601493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03550467775126603</v>
+        <v>0.03526541008361363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4402458223223187</v>
+        <v>0.4411686458555922</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2479104661075252</v>
+        <v>0.2463590416111254</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7425407616196947</v>
+        <v>0.756600789892373</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.214974620615813</v>
+        <v>1.235079200362092</v>
       </c>
       <c r="C19" t="n">
-        <v>1.203540524140835</v>
+        <v>1.219647030383058</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4924703954038933</v>
+        <v>0.4881458031719558</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02252436217318385</v>
+        <v>0.02258107514875793</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03854211430280556</v>
+        <v>0.03835310808451886</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4631573968327531</v>
+        <v>0.4652296491414405</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2680206802959285</v>
+        <v>0.2669165005856659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7788062157594715</v>
+        <v>0.7939606029653494</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.236405465723082</v>
+        <v>1.257421755137157</v>
       </c>
       <c r="C20" t="n">
-        <v>1.215317475142108</v>
+        <v>1.233279440657449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5221995442530517</v>
+        <v>0.5179858476027865</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0242671981618341</v>
+        <v>0.02437070166625341</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04163312796711326</v>
+        <v>0.04149666247236176</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4880556506354981</v>
+        <v>0.4908970289855593</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2879292540154365</v>
+        <v>0.2872470704282828</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7792563703627188</v>
+        <v>0.7949050719397213</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.263670082116393</v>
+        <v>1.286262712449437</v>
       </c>
       <c r="C21" t="n">
-        <v>1.247506427530807</v>
+        <v>1.267647883287505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5599242790501107</v>
+        <v>0.5579941242809054</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02605505469876884</v>
+        <v>0.02620704052500816</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04479230317240425</v>
+        <v>0.04471231925348535</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5086614391144391</v>
+        <v>0.512315505123117</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3074865935457029</v>
+        <v>0.3072799063477621</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7799326429768521</v>
+        <v>0.7972356021146249</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.283732143545758</v>
+        <v>1.307680838176563</v>
       </c>
       <c r="C22" t="n">
-        <v>1.279217165795942</v>
+        <v>1.300587927270994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6319471545584994</v>
+        <v>0.6310322980123801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02787084291203164</v>
+        <v>0.02807261201947577</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04800163353126864</v>
+        <v>0.04798152134892675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.530875245761257</v>
+        <v>0.5353471865590481</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3277261321479749</v>
+        <v>0.3280012518926161</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7961495758301043</v>
+        <v>0.8141219245441594</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.306710370413676</v>
+        <v>1.331465642023824</v>
       </c>
       <c r="C23" t="n">
-        <v>1.298519590261799</v>
+        <v>1.321403418133327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6926787394402147</v>
+        <v>0.6923726554404512</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02972227252724466</v>
+        <v>0.02997394539160191</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05126840945730283</v>
+        <v>0.05131018545398632</v>
       </c>
       <c r="G23" t="n">
-        <v>0.552571809077704</v>
+        <v>0.5577877575625019</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3477314472600059</v>
+        <v>0.3484944713533832</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7969827678499106</v>
+        <v>0.8155000181958783</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.329017936079827</v>
+        <v>1.35501222581363</v>
       </c>
       <c r="C24" t="n">
-        <v>1.327440765647065</v>
+        <v>1.35168670424401</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7425903242867102</v>
+        <v>0.7435993681076929</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03160808617755535</v>
+        <v>0.03191097700152137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05459095429750239</v>
+        <v>0.05469771601852039</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5738520035572692</v>
+        <v>0.579809900340658</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3678169898933905</v>
+        <v>0.3690899745725297</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8001153366734051</v>
+        <v>0.8194344542483997</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.350263868583455</v>
+        <v>1.377162180800304</v>
       </c>
       <c r="C25" t="n">
-        <v>1.352035057693494</v>
+        <v>1.377395040197745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8037950013311874</v>
+        <v>0.8064798763433432</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03352608977197173</v>
+        <v>0.0338808040179587</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05796661396896103</v>
+        <v>0.05814062147052115</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5957146372724682</v>
+        <v>0.6023713776697228</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3881262377426354</v>
+        <v>0.3899141067412737</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8056417057351357</v>
+        <v>0.825452767338402</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.372117571553303</v>
+        <v>1.399823315471681</v>
       </c>
       <c r="C26" t="n">
-        <v>1.374907195010271</v>
+        <v>1.401407098219773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8705655771838081</v>
+        <v>0.8746182988464257</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03547812835282078</v>
+        <v>0.03588514781437239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06139690789784429</v>
+        <v>0.06164017975920034</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6168533030215463</v>
+        <v>0.6241921382027029</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4083660768592701</v>
+        <v>0.4106772603584953</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8073504063919003</v>
+        <v>0.8276258786396659</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393467251733329</v>
+        <v>1.422085839689516</v>
       </c>
       <c r="C27" t="n">
-        <v>1.40055740622505</v>
+        <v>1.428080614269959</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9332686782288648</v>
+        <v>0.9386723410304949</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0374632658482251</v>
+        <v>0.03792342539768863</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0648805760271776</v>
+        <v>0.06519539435842413</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6380897681159338</v>
+        <v>0.6461069861705011</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4287264268346551</v>
+        <v>0.4315701004356537</v>
       </c>
       <c r="I27" t="n">
-        <v>0.811163297066266</v>
+        <v>0.83185460667037</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.414900813742692</v>
+        <v>1.444257015956437</v>
       </c>
       <c r="C28" t="n">
-        <v>1.423945323035313</v>
+        <v>1.452419909314656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9967838971892138</v>
+        <v>1.003878374225206</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03948198018322695</v>
+        <v>0.03999576912507676</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06841782806153433</v>
+        <v>0.06880603689831521</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6595646931467372</v>
+        <v>0.6682366414031219</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4491682042063226</v>
+        <v>0.4525492597987788</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8140092419337628</v>
+        <v>0.8350157651598755</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.436285175253454</v>
+        <v>1.466396513772206</v>
       </c>
       <c r="C29" t="n">
-        <v>1.447776695299626</v>
+        <v>1.477165883620204</v>
       </c>
       <c r="D29" t="n">
-        <v>1.064786466866313</v>
+        <v>1.073595005649704</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04153438265274056</v>
+        <v>0.04210241182345345</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07200854099966797</v>
+        <v>0.07247202818274573</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6808134553874944</v>
+        <v>0.6901276730455999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.469636021022008</v>
+        <v>0.4735602629479008</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8160820176200969</v>
+        <v>0.8373969986864254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.457528882847461</v>
+        <v>1.488383672502221</v>
       </c>
       <c r="C30" t="n">
-        <v>1.471997188473314</v>
+        <v>1.502247440827722</v>
       </c>
       <c r="D30" t="n">
-        <v>1.133993545411008</v>
+        <v>1.14443996963768</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04362033572676062</v>
+        <v>0.0442432547631673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07565236320678662</v>
+        <v>0.07619298736400128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7021380136382654</v>
+        <v>0.7120881998675473</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4901952668516052</v>
+        <v>0.4946676509558592</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8192158502367796</v>
+        <v>0.8407863238054325</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.478872391215833</v>
+        <v>1.510405218249693</v>
       </c>
       <c r="C31" t="n">
-        <v>1.495491780612551</v>
+        <v>1.526569067915521</v>
       </c>
       <c r="D31" t="n">
-        <v>1.203114320690099</v>
+        <v>1.215316693063484</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04574026614797354</v>
+        <v>0.04641862554849849</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0793495441848262</v>
+        <v>0.07996900040962551</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7235071338403468</v>
+        <v>0.7340854673165348</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5108087983236845</v>
+        <v>0.5158333514499207</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8217129787392673</v>
+        <v>0.843493589249025</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.500170164663781</v>
+        <v>1.532395944720149</v>
       </c>
       <c r="C32" t="n">
-        <v>1.519424057816292</v>
+        <v>1.551299336423389</v>
       </c>
       <c r="D32" t="n">
-        <v>1.274158198330262</v>
+        <v>1.288201634861614</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04789421763835451</v>
+        <v>0.04862866007448276</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08309996959648566</v>
+        <v>0.08379999027142589</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7448817469708583</v>
+        <v>0.756081526037684</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5314795169368991</v>
+        <v>0.5370601326904562</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8241077374037089</v>
+        <v>0.8460837907935873</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.521477639999677</v>
+        <v>1.554372816529653</v>
       </c>
       <c r="C33" t="n">
-        <v>1.543288234463792</v>
+        <v>1.575938205370509</v>
       </c>
       <c r="D33" t="n">
-        <v>1.347245087517753</v>
+        <v>1.363137367097179</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05008235199653014</v>
+        <v>0.05087351111218794</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08690366369648485</v>
+        <v>0.08768592231275002</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7663353669687365</v>
+        <v>0.7781515605755995</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5522215440836716</v>
+        <v>0.5583617064631778</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8267368599539932</v>
+        <v>0.8488858395886856</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
